--- a/biology/Médecine/Kenneth_Frazier/Kenneth_Frazier.xlsx
+++ b/biology/Médecine/Kenneth_Frazier/Kenneth_Frazier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenneth Carleton Frazier, né le 17 décembre 1954 à Philadelphie, est un homme d'affaires et chef d'entreprise américain. Depuis 2010, il est le président directeur général du laboratoire pharmaceutique Merck &amp; Co.
 </t>
@@ -513,13 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Kenneth Frazier obtient son baccalauréat universitaire en lettres à l'université de Pennsylvanie en 1975. Il a également un master de droit d'Harvard (1978)[1]. 
-Parcours
-Après ses études de droit, Kenneth Frazier commence sa carrière au sein du cabinet d'avocats Drinker, Biddle &amp; Reath dans la ville de Philadelphie.
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kenneth Frazier obtient son baccalauréat universitaire en lettres à l'université de Pennsylvanie en 1975. Il a également un master de droit d'Harvard (1978). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kenneth_Frazier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kenneth_Frazier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études de droit, Kenneth Frazier commence sa carrière au sein du cabinet d'avocats Drinker, Biddle &amp; Reath dans la ville de Philadelphie.
 Il intègre le laboratoire pharmaceutique Merck &amp; Co. au début des années 1990 comme conseiller aux affaires publiques et avocat. 
 En 2006, il est nommé vice-président du groupe.  
-En 2010, il devient le président directeur général de Merck en remplaçant Richard Clark[2].
+En 2010, il devient le président directeur général de Merck en remplaçant Richard Clark.
 </t>
         </is>
       </c>
